--- a/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.8524194806079475</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7031528820927435</v>
+        <v>0.7031528820927437</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7318625822991616</v>
+        <v>0.7321277436323934</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.694744809138275</v>
+        <v>0.698298918984772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7914351075770566</v>
+        <v>0.7889084214073615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6353873313375987</v>
+        <v>0.6365444917477001</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7694859343252577</v>
+        <v>0.7691405753745683</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7480366787360824</v>
+        <v>0.7479121810679957</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8541420793639738</v>
+        <v>0.8560536279187814</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6967528189274372</v>
+        <v>0.6963056165602877</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7613204712957995</v>
+        <v>0.7610083578163959</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7363548549415626</v>
+        <v>0.7351940798536921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8346741964330209</v>
+        <v>0.8344039922013219</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6792862220355876</v>
+        <v>0.6776941448749411</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7839861714285893</v>
+        <v>0.7853894781567904</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7561927945441201</v>
+        <v>0.7568100137061463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8476031324300161</v>
+        <v>0.8463913627319161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7107688141005566</v>
+        <v>0.7135310918128974</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8121874614683904</v>
+        <v>0.8127582499490421</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7943696748369289</v>
+        <v>0.7989416018590355</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.898114924157118</v>
+        <v>0.8974664602853261</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7463620884383384</v>
+        <v>0.7468704314976491</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7932548469462877</v>
+        <v>0.7941123114445447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7735205640508328</v>
+        <v>0.771333927494721</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8694267738706309</v>
+        <v>0.8693352967252477</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7223679545547218</v>
+        <v>0.7228074417551761</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8323500096017676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6421090361315432</v>
+        <v>0.6421090361315431</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6886281926267798</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6533374865826714</v>
+        <v>0.6542276783321845</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6496300701893125</v>
+        <v>0.649592858729557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8167503289815131</v>
+        <v>0.8135068213564404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6183503211941486</v>
+        <v>0.6175563011505297</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6652511451109145</v>
+        <v>0.666259806397889</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7371181257224364</v>
+        <v>0.7334326600212411</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8411233252396955</v>
+        <v>0.8403011261045875</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6324010257737058</v>
+        <v>0.6344248175256357</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6665667090048619</v>
+        <v>0.665844881098775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6963728300727613</v>
+        <v>0.695472738368843</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8334921633559449</v>
+        <v>0.8330383468819617</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6296421492864244</v>
+        <v>0.6306105418227929</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6982270730975874</v>
+        <v>0.6991283186255868</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6919091944599046</v>
+        <v>0.6943142194947154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8486034998127571</v>
+        <v>0.8484233770351991</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6676745808765767</v>
+        <v>0.6651025450354401</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7097508523271665</v>
+        <v>0.7130012684271038</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7779214204860687</v>
+        <v>0.7745803658514697</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8731459980040844</v>
+        <v>0.8715603687250649</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.673921088863742</v>
+        <v>0.6733553772608787</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7010505925821762</v>
+        <v>0.6987066538591178</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.72726260771693</v>
+        <v>0.7271812778719821</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8570338151298307</v>
+        <v>0.8571534034873484</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6638657383733512</v>
+        <v>0.662220707259889</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7669166594732438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6187664920095327</v>
+        <v>0.6187664920095326</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6468020540026667</v>
@@ -969,7 +969,7 @@
         <v>0.7619200339957563</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5973748332632033</v>
+        <v>0.5973748332632032</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6420704987591903</v>
+        <v>0.642154039070262</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6277018252048188</v>
+        <v>0.6272432877789422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7303122184668722</v>
+        <v>0.7253527634220033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5752318684726339</v>
+        <v>0.579213433333124</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6012715964469411</v>
+        <v>0.5998934913349722</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6318467422064118</v>
+        <v>0.6294084140530093</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7144556892596896</v>
+        <v>0.713336440806507</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5447964213552559</v>
+        <v>0.5398308462469479</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6378998396195017</v>
+        <v>0.63776983323724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6428871236036598</v>
+        <v>0.6427540381354599</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7366597646641706</v>
+        <v>0.735702608802609</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.570817646447936</v>
+        <v>0.5707337620049884</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7233684514685665</v>
+        <v>0.7247666719875363</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7196749324295213</v>
+        <v>0.7207407515926386</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8034492683707188</v>
+        <v>0.8019781732469595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6561793051211021</v>
+        <v>0.6576954056258719</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6889913117736222</v>
+        <v>0.6955406453554883</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7175419356840254</v>
+        <v>0.7207596895327663</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7932831061017576</v>
+        <v>0.7924832963892021</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6075896104165681</v>
+        <v>0.6091939078816554</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6983470223919769</v>
+        <v>0.6980629570731807</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7082991717834013</v>
+        <v>0.7053821045528872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.786336556431109</v>
+        <v>0.7870371971533487</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6219064080167708</v>
+        <v>0.6233945857086037</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8476083047351021</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6532069281201572</v>
+        <v>0.6532069281201571</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7137582014626049</v>
@@ -1105,7 +1105,7 @@
         <v>0.8334813638422571</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6481769610038914</v>
+        <v>0.6481769610038917</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6726346297432377</v>
+        <v>0.6710029402414741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8044598771690334</v>
+        <v>0.8037034356054351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6241781581846694</v>
+        <v>0.6245833858546477</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7368006949763867</v>
+        <v>0.7391936661825491</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8344239063470709</v>
+        <v>0.8346668742085964</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6373985744113004</v>
+        <v>0.6385396295733379</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7105165416013359</v>
+        <v>0.710364325204514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8245662703000824</v>
+        <v>0.8238980951116793</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6368224856874933</v>
+        <v>0.634946241439192</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7053498846121472</v>
+        <v>0.7034790644689751</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8311197802590642</v>
+        <v>0.8310996075924973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.661531278848199</v>
+        <v>0.6618454154868421</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7679306484826011</v>
+        <v>0.7678886827286386</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8580422883470885</v>
+        <v>0.8590202435942531</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6662757207562752</v>
+        <v>0.6670410495955391</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7317694546024818</v>
+        <v>0.7323392867505122</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8418423311182797</v>
+        <v>0.8413715834779166</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6594592955491068</v>
+        <v>0.6592368720723316</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>755079</v>
+        <v>755353</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>663563</v>
+        <v>666958</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>592399</v>
+        <v>590507</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>359425</v>
+        <v>360079</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1011961</v>
+        <v>1011507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>988462</v>
+        <v>988297</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>842279</v>
+        <v>844164</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>552859</v>
+        <v>552505</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1786694</v>
+        <v>1785961</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1676330</v>
+        <v>1673688</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1447845</v>
+        <v>1447376</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>923257</v>
+        <v>921093</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>808857</v>
+        <v>810304</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>722253</v>
+        <v>722843</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>634441</v>
+        <v>633534</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>402066</v>
+        <v>403629</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1068118</v>
+        <v>1068869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1049686</v>
+        <v>1055728</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>885641</v>
+        <v>885002</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>592223</v>
+        <v>592627</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1861638</v>
+        <v>1863651</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1760939</v>
+        <v>1755961</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1508128</v>
+        <v>1507969</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>981812</v>
+        <v>982410</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1105271</v>
+        <v>1106777</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1265491</v>
+        <v>1265419</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1681439</v>
+        <v>1674762</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1364073</v>
+        <v>1362321</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1054122</v>
+        <v>1055720</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1286412</v>
+        <v>1279980</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1657317</v>
+        <v>1655697</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1351690</v>
+        <v>1356015</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2183858</v>
+        <v>2181493</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2571850</v>
+        <v>2568526</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3358186</v>
+        <v>3356357</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2734775</v>
+        <v>2738981</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1181212</v>
+        <v>1182737</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1347852</v>
+        <v>1352537</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1747015</v>
+        <v>1746644</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1472881</v>
+        <v>1467208</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1124634</v>
+        <v>1129784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1357621</v>
+        <v>1351791</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1720413</v>
+        <v>1717289</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1440434</v>
+        <v>1439225</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2296837</v>
+        <v>2289157</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2685933</v>
+        <v>2685632</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3453036</v>
+        <v>3453518</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2883421</v>
+        <v>2876276</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>351227</v>
+        <v>351272</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>298924</v>
+        <v>298705</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>397329</v>
+        <v>394630</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>401123</v>
+        <v>403899</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>286453</v>
+        <v>285796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>285738</v>
+        <v>284635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>385699</v>
+        <v>385095</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>396429</v>
+        <v>392816</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>652848</v>
+        <v>652715</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>596885</v>
+        <v>596762</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>798468</v>
+        <v>797431</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>813409</v>
+        <v>813289</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>395698</v>
+        <v>396463</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>342723</v>
+        <v>343230</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>437119</v>
+        <v>436319</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>457570</v>
+        <v>458627</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>328244</v>
+        <v>331364</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>324491</v>
+        <v>325946</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>428254</v>
+        <v>427822</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>442122</v>
+        <v>443289</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>714712</v>
+        <v>714421</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>657617</v>
+        <v>654908</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>852313</v>
+        <v>853073</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>886210</v>
+        <v>888330</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2273071</v>
+        <v>2267557</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2695954</v>
+        <v>2693419</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2165267</v>
+        <v>2166673</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2592673</v>
+        <v>2601093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2917415</v>
+        <v>2918265</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2331947</v>
+        <v>2336121</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4901270</v>
+        <v>4900220</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5646285</v>
+        <v>5641710</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4538969</v>
+        <v>4525596</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2383628</v>
+        <v>2377305</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2785298</v>
+        <v>2785231</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2294845</v>
+        <v>2295934</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2702214</v>
+        <v>2702066</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2999993</v>
+        <v>3003412</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2437595</v>
+        <v>2440395</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5047877</v>
+        <v>5051807</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5764584</v>
+        <v>5761361</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>4700314</v>
+        <v>4698729</v>
       </c>
     </row>
     <row r="20">
